--- a/doc/NorShippin-Hackaton-Appendix-A.xlsx
+++ b/doc/NorShippin-Hackaton-Appendix-A.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipskou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lan/Downloads/veracity-hackathon-norshipping-main/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEABED-AC5E-9A4D-8624-ECB26F0A37D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63725F0C-990A-244C-B46D-6A36F411EB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E0FB66E9-1B16-4B3C-87BF-8B80D31455B0}"/>
+    <workbookView xWindow="42520" yWindow="500" windowWidth="35160" windowHeight="23840" activeTab="1" xr2:uid="{E0FB66E9-1B16-4B3C-87BF-8B80D31455B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Type</t>
   </si>
@@ -95,15 +95,74 @@
   </si>
   <si>
     <t>Supramax</t>
+  </si>
+  <si>
+    <t>minimize</t>
+  </si>
+  <si>
+    <t>capacity of ship 1* number of rounds ship type 1 goes + capacity of ship 2* number of rounds ship type 2 goes + capacity of ship 3* number of rounds ship type 3 goes  &gt;= Demand</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>emission per km for ship 1</t>
+  </si>
+  <si>
+    <t>emission per km for ship 2</t>
+  </si>
+  <si>
+    <t>emission per km for ship 3</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of rounds ship1 </t>
+  </si>
+  <si>
+    <t>number of rounds ship2</t>
+  </si>
+  <si>
+    <t>number of rounds ship3</t>
+  </si>
+  <si>
+    <t>(emission per km for ship 1)*x1+(emission per km for ship 2)*x2+(emission per km for ship 3)*x3</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>x1, x2, x3 &gt;= 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,9 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,29 +510,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A805F912-9272-4CCD-940E-E996EB370B86}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -559,7 +621,7 @@
         <v>71018</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -603,7 +665,7 @@
         <v>71600</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -647,7 +709,7 @@
         <v>64667</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -691,7 +753,7 @@
         <v>56128</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -735,7 +797,7 @@
         <v>56564</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -779,7 +841,7 @@
         <v>57080</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -823,7 +885,7 @@
         <v>52550</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -867,7 +929,7 @@
         <v>53733</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -915,4 +977,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7545D079-7B20-B144-9776-0F528C022CB6}">
+  <dimension ref="B2:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>